--- a/AllicaAPIautomation/target/test-classes/APIdata.xlsx
+++ b/AllicaAPIautomation/target/test-classes/APIdata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZERO079.MDLT079\Documents\AllicaAPIautomation\AllicaAPIautomation\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dishas\Documents\Fresh\AllicaAPIautomation - Copy\AllicaAPIautomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="ExperienceAPI" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -95,20 +95,39 @@
     <t>POST</t>
   </si>
   <si>
-    <t>transactionID = "3F2504E0-4F89-11D3-9A0C-0305E82C3303"
- RequestID = "3F2504E0-4F89-11D3-9A0C-0305E82C3303"
- clientID = "10f17ccb2ed44baeac09e852f0835c68"
- clientSecret = "2C5f53cDd3c845F596C305884bfFc0B0"</t>
+    <t>https://ab-e-mobile-interface-v1-sit.uk-e1.cloudhub.io/api/ab-e-mobile-interface/v1/users</t>
+  </si>
+  <si>
+    <t>{"username":  "dynamicAlphaNum", "phoneNo": "+447459705239","email": "disha.allica@allica.co.uk","password": "Allica123$"}</t>
+  </si>
+  <si>
+    <t>UserRegister</t>
+  </si>
+  <si>
+    <t>Extract</t>
+  </si>
+  <si>
+    <t>Extracted</t>
+  </si>
+  <si>
+    <t>sessionId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF505050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -168,6 +187,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,12 +517,12 @@
     <col min="4" max="4" width="13.28515625" style="7"/>
     <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="1"/>
-    <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="13.28515625" style="1"/>
+    <col min="7" max="8" width="16.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="13.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -523,44 +545,51 @@
         <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -582,8 +611,9 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -605,8 +635,9 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -628,8 +659,9 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -651,8 +683,10 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>